--- a/data/manualDetection/cultivation/originalFiles/nadja_results_190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_7.xlsx
+++ b/data/manualDetection/cultivation/originalFiles/nadja_results_190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Documents\git\gitHub\SI_lengthOfPrimaryCilia\data\manualDetection\cultivation\originalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40A3133-90A0-4048-B93D-0B4417AFF5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED69CFD0-41F4-4BEA-BC83-704D54402DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="3585" windowWidth="28800" windowHeight="15435" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
+    <workbookView xWindow="4410" yWindow="5355" windowWidth="28800" windowHeight="15435" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAF1B93-8D5A-4DDF-9B98-D3A4298A3DAA}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,13 +425,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16.507000000000001</v>
+        <v>8.9629999999999992</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,13 +439,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.097999999999999</v>
+        <v>13.284000000000001</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,13 +453,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>16.318999999999999</v>
+        <v>15.173999999999999</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -467,13 +467,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>16.206</v>
+        <v>12.864000000000001</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -481,13 +481,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>14.076000000000001</v>
+        <v>18.262</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,13 +495,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>13.946</v>
+        <v>13.071</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -509,13 +509,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>16.324999999999999</v>
+        <v>13.997999999999999</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,13 +523,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>12.865</v>
+        <v>12.56</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -537,13 +537,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>22.768000000000001</v>
+        <v>10.61</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,13 +551,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13.127000000000001</v>
+        <v>10.707000000000001</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -565,13 +565,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>15.311</v>
+        <v>11.314</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,13 +579,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>13.651999999999999</v>
+        <v>8.57</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,13 +593,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>13.031000000000001</v>
+        <v>7.1520000000000001</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -607,13 +607,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>14.836</v>
+        <v>13.943</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,13 +621,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>13.071999999999999</v>
+        <v>18.677</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,13 +635,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8.5440000000000005</v>
+        <v>13.323</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,195 +649,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>13.595000000000001</v>
+        <v>16.132999999999999</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>16.277000000000001</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>17.292999999999999</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>12.709</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>16.184999999999999</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>11.108000000000001</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>12.648999999999999</v>
-      </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>14.622999999999999</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>13.548999999999999</v>
-      </c>
-      <c r="C26">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>19.154</v>
-      </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>8.6720000000000006</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>9.7750000000000004</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>10.44</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>6.5970000000000004</v>
-      </c>
-      <c r="C31">
-        <v>12</v>
-      </c>
-      <c r="D31">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
